--- a/site/StructureDefinition-tumorErkrankung.xlsx
+++ b/site/StructureDefinition-tumorErkrankung.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-tumorErkrankung.xlsx
+++ b/site/StructureDefinition-tumorErkrankung.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-tumorErkrankung.xlsx
+++ b/site/StructureDefinition-tumorErkrankung.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="300">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/tumorErkrankung</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/tumorErkrankung</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -638,7 +638,7 @@
     <t>EpisodeOfCare.diagnosis.condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/Diagnose)
+    <t xml:space="preserve">Reference(Condition)
 </t>
   </si>
   <si>
@@ -663,10 +663,175 @@
     <t>Role that this diagnosis has within the episode of care (e.g. admission, billing, discharge …).</t>
   </si>
   <si>
-    <t>The type of diagnosis this condition represents.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.coding.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.coding.extension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.role.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>EpisodeOfCare.diagnosis.rank</t>
@@ -685,7 +850,7 @@
     <t>EpisodeOfCare.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/TumorPatient)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/TumorPatient)
 </t>
   </si>
   <si>
@@ -1103,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1112,8 +1277,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.5546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1122,7 +1287,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.84765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.59765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1136,11 +1301,11 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="31.890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.08203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="36.1484375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1148,7 +1313,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="46.53125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3167,7 +3332,7 @@
         <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>77</v>
@@ -3278,7 +3443,7 @@
         <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>77</v>
@@ -3720,7 +3885,7 @@
         <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
@@ -3823,13 +3988,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>77</v>
@@ -3871,13 +4036,11 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y25" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -3921,10 +4084,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3944,16 +4107,16 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4004,7 +4167,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4016,13 +4179,13 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4030,21 +4193,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4053,18 +4216,20 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4101,48 +4266,48 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4150,13 +4315,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>77</v>
@@ -4165,16 +4330,20 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4228,7 +4397,7 @@
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4237,10 +4406,10 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4248,10 +4417,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4271,16 +4440,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4331,7 +4500,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4343,28 +4512,28 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4383,15 +4552,17 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4428,19 +4599,19 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4452,13 +4623,13 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4466,10 +4637,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4477,31 +4648,35 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4549,7 +4724,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4564,10 +4739,10 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4575,21 +4750,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4598,18 +4773,20 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4658,13 +4835,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -4673,10 +4850,10 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4684,10 +4861,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4695,33 +4872,33 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -4769,13 +4946,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -4787,14 +4964,1225 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM33">
+  <autoFilter ref="A1:AM44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4804,7 +6192,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI32">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
